--- a/data/hotels_by_city/Dallas/Dallas_shard_472.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_472.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>STR#</t>
   </si>
@@ -144,6 +144,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Richard F</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t>1. TV - most channels poor reception 2.Floor lamp by desk did not work 3.Refrigerator rusty 4.Alarm clock dirty 5.Was originally going to stay a week and they wanted to charge extra $30 cleaning fee 6.No pillow cases on 2 pillows 7.Water leaking from room above in bathroom. Water on toilet seat and floor 8.Bathtub dirty and stained 9.Bathroom floor dirty 10.Carpet not clean and used Q-tips and other debris on floor 11.Noise from adjacent rooms 12.No bath mat/slip prevention in bath (I slipped and almost fell so did not shower)13.Enough to make one in room coffee even though 2 guests14.Entrance door deadbolt hard to use due to misalignment15. "Breakfast" bar couple bagels, bread, ceral, Juice, coffee (went next door to McDonalds)See PicturesMore</t>
   </si>
   <si>
+    <t>Sandykc241</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r514347887-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>I would live to give a positive in this review #1 conveniently located on service road. #2 the bed linen appeared to be clean. #3 Cheap My advice is keep driving. I found a wallet next to my car and went to the office to get the guys information so I could return it to him on the spot, I would not have been comfortable leaving it at the front desk. (He gave me the information by the way, red flag) Bathroom floor was full of hair as was the bathtub drain (not mine) we put a towel down to shower. Gross and it is hard to believe it is by Wyndham.More</t>
   </si>
   <si>
+    <t>Ric B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r500838804-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
   </si>
   <si>
@@ -217,6 +226,9 @@
   </si>
   <si>
     <t>July 2017</t>
+  </si>
+  <si>
+    <t>catatopia</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r440037279-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
@@ -246,6 +258,9 @@
 Later, I went to the office to get the wi-fi pass word. I rang for him &amp; once again he looked very put out &amp; was rude. The commode did not flush properly. My husband went to move the hair dryer cord to plug in the coffee pot &amp; the whole unit came off the wall. &amp; the tv had very...We booked a room at Knights Inn for two days in advance. My confirmation said it had a king size bed, microwave &amp; refrigerator It also advertises that it is pet friendly. When we arrived, the man who checked us in was rude. He kept asking me the same question over &amp; over, but did not seem to like the answer. when my husband tried to explain, he held his hand up to silence him. He spoke in heavily accented English, where sometimes he could not be understood.When we finally got to the room, we noticed the air-conditioning unit did not sit flush with the wall. The electrical outlet would not keep anything plugged in. The plug would come right back out. There were "No Pets" signs everywhere, starting with the the office. There was no microwave in the room, as advertised. It also offered a free continental breakfast. when we went to breakfast the next morning, there was nothing there, even though it was not supposed to end yet. They had even turned the coffee pot off.  Later, I went to the office to get the wi-fi pass word. I rang for him &amp; once again he looked very put out &amp; was rude. The commode did not flush properly. My husband went to move the hair dryer cord to plug in the coffee pot &amp; the whole unit came off the wall. &amp; the tv had very few channels. The ones they did have had wavy lines going through them.  Also, he rented the room above us to someone who had kids. They kept running and making noise for most of the night. I would not recommend this place to anyone. There was a dead bug inMore</t>
   </si>
   <si>
+    <t>William M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r395912721-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>corkerine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r340057298-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
   </si>
   <si>
@@ -288,6 +306,9 @@
     <t>The only reason this is getting a 1 is because there is not a negative number!  I called on a Monday to book a room for the following Saturday and was told that they did not have any rooms available.  I asked if I could be put on a waiting list and was told "no" and he hung up.  My brother-in-law called the next day and was told that the hotel was open and no reservations were needed - just come whenever he needed a room.  I had heard rumors that the manager disliked women but didn't believe it until I experienced it first hand!  Fast forward to Saturday...we were celebrating at the sports bar in the hotel and weren't going to drive after drinking, hence the reason we needed to stay there.  My husband and I went in to get a room and I handed him my credit card.  He then asked for my license...standard protocol.  I had recently gotten married and gave him my credit card that hadn't been changed over yet...so he questioned it.  I explained that I had recently gotten married and that was my maiden name, but I had another card that had been changed over to my married name and matched my license...so I gave him that.  He then proceeds to ask "Who is Diane"?  I explained that was my middle name &amp; had no relevance, the first card was in my maiden name...The only reason this is getting a 1 is because there is not a negative number!  I called on a Monday to book a room for the following Saturday and was told that they did not have any rooms available.  I asked if I could be put on a waiting list and was told "no" and he hung up.  My brother-in-law called the next day and was told that the hotel was open and no reservations were needed - just come whenever he needed a room.  I had heard rumors that the manager disliked women but didn't believe it until I experienced it first hand!  Fast forward to Saturday...we were celebrating at the sports bar in the hotel and weren't going to drive after drinking, hence the reason we needed to stay there.  My husband and I went in to get a room and I handed him my credit card.  He then asked for my license...standard protocol.  I had recently gotten married and gave him my credit card that hadn't been changed over yet...so he questioned it.  I explained that I had recently gotten married and that was my maiden name, but I had another card that had been changed over to my married name and matched my license...so I gave him that.  He then proceeds to ask "Who is Diane"?  I explained that was my middle name &amp; had no relevance, the first card was in my maiden name and the card I just gave him had my married name on it. This went on 3 rounds of explanation.  My husband then interjected and tried to tell him that the first card was my maiden name and he VERY RUDELY pointed his finger at him and said  "I'm not talking to you!".  We remained calm and I tried once again to explain and SHOW him I had proper identification and that my cards were legit.  He again VERY RUDELY said "GET OUT! I cannot rent to you...get out of my lobby!"  Shocked, I asked "Are you serious?"...and he was! We did end up staying there because we weren't going to drink &amp; drive (my brother-in-law had to get the room).  As if the manager's unexcusable behavior wasn't bad enough, the room was run down &amp; disgusting. The other reviews are spot on!  There were dead roaches in the bathroom and the shower ceiling had a huge patch job that was about to fall in!  There was a musty smell and the wifi didn't work.  Will never stay here again and will warn everyone that I can not to stay here either! This place should be shut down!!More</t>
   </si>
   <si>
+    <t>Robert L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r271838404-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>BillyMitchell897</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r216708688-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
   </si>
   <si>
@@ -328,6 +352,9 @@
   </si>
   <si>
     <t>I paid $200 for one week. On the first night I was asleep when I felt something crawling on my skin. When I turned on the light roaches were everywhere, on my bed, my suitcase, walls, floor… The light made them scatter into all these cracks in the room. I went to the front desk and demanded my money back. In broken English the desk clerk said, "no refunds." So I demanded another room. At 7:00 AM two hotel employees were knocking on my door demanding more money because the room they moved me to cost more because it was downstairs. I called Discover Card and told them not to let Knights Inn charge on my credit card. Discover said they can't do that because they had already approved my card. I called Knights Inn corporate complaint line. They told me this hotel is independently owned and they can do nothing. I lost the $200.More</t>
+  </si>
+  <si>
+    <t>just_crystal</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r202407700-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
@@ -348,6 +375,9 @@
   <si>
     <t>I have been back and forth with this hotel ever since my stay. We recently stayed 4/3/14-4/8/14 for a Business Conference as well as the NCAA Final Four.
 Upon our initial arrival to the hotel, we were having issues with the magnetic strips on our keycard. We had to go back on 3 separate occasions to replace our card. On that Friday Evening/Saturday Morning at 1am, we were awoken by a septic waterfall in our bathroom. I have video available if you don't believe me,you wouldn't believe it if you saw it. We had to call the front desk--yet again. And they were "bothered" that we were contacting them once more. They came within 10 mins to access the damage and we were forced to move our room in our pajamas. We were notified that the new room did not have a magnetic lock and that we would need to return the key to the front desk in the morning--being that it was the only copy that they owned. At 6:15am as instructed, we went to the front desk to drop off the key because we had a conference to attend at 7. At this time, we learned that our door actually DOESN'T LOCK. We slept overnight in a room, with all our belongings and the DOOR DOESN'T EVEN LOCK. Mind you, this hotel has no form of security as anyone could walk up to any hotel room. Without any...I have been back and forth with this hotel ever since my stay. We recently stayed 4/3/14-4/8/14 for a Business Conference as well as the NCAA Final Four.Upon our initial arrival to the hotel, we were having issues with the magnetic strips on our keycard. We had to go back on 3 separate occasions to replace our card. On that Friday Evening/Saturday Morning at 1am, we were awoken by a septic waterfall in our bathroom. I have video available if you don't believe me,you wouldn't believe it if you saw it. We had to call the front desk--yet again. And they were "bothered" that we were contacting them once more. They came within 10 mins to access the damage and we were forced to move our room in our pajamas. We were notified that the new room did not have a magnetic lock and that we would need to return the key to the front desk in the morning--being that it was the only copy that they owned. At 6:15am as instructed, we went to the front desk to drop off the key because we had a conference to attend at 7. At this time, we learned that our door actually DOESN'T LOCK. We slept overnight in a room, with all our belongings and the DOOR DOESN'T EVEN LOCK. Mind you, this hotel has no form of security as anyone could walk up to any hotel room. Without any empathy OR any apologies whatsoever, the front desk told us we would have to change our room. Since we had a conference to attend at 7am, we requested if front desk/bell hop could have our belongings moved, HOWEVER they stated that there was no such service AND that there were no rooms available. Nonetheless, we had to wait with our belongings AND wait for a room--THUS being late to the conference we came to Texas for(arrived to our conference at the Fort Worth Convention Center past 9:20am) Throughout the whole process, there were no apologies. The front desk was completely inconsiderate and unhelpful. The whole time they stood by the fact that it WASN'T their fault that the bathroom had a waterfall flood, nor that we were given a room that didn't even lock nor that we had to be late for our conference because they failed to accommodate ANY of our needs. They even went to state that it was the guest above us that was at fault for the waterfall!!!After the fact, we called our travel agent and they were able to negotiate to get us 2 nights refunded for all our inconvenience. NOW, the nightmare continues!!!! Being that Knights Inn charged my card, they are the ones needed to refund my card.We have been back and forth with the hotel on numerous occasions, unable to get in contact with their manager, Vicki Patel. Apparently this manager never works. And none of the people that work there speak English. At this point, my travel agent and I have reached out to the "presidential corporate" contact(wyndham/knights inn) and they have reported that they can take over the case after April 28th. SAVE YOURSELF THE TROUBLE. I WOULD HAVE PREFERRED TO SLEEP in MY RENTAL CAR. If you really want to see the waterfall, you can email me. It's quite funny.More</t>
+  </si>
+  <si>
+    <t>ehopkins2</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r152009678-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
@@ -865,43 +895,47 @@
       <c r="A2" t="n">
         <v>31069</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>11210</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -921,50 +955,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>31069</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>162829</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -978,50 +1016,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>31069</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>162830</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1039,50 +1081,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31069</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>162831</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1100,50 +1146,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31069</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>13586</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1157,50 +1207,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31069</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>162832</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1218,50 +1272,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31069</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>1769</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1281,50 +1339,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31069</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>162833</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1342,41 +1404,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31069</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>162834</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -1405,41 +1471,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31069</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>162835</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -1468,7 +1538,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_472.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_472.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>STR#</t>
   </si>
@@ -144,21 +144,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Richard F</t>
-  </si>
-  <si>
-    <t>06/14/2018</t>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r595312315-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>56897</t>
+  </si>
+  <si>
+    <t>106185</t>
+  </si>
+  <si>
+    <t>595312315</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible. Don’t stay here!!!!!  </t>
+  </si>
+  <si>
+    <t>I really wish I could give this a minus rating!!!!!  When will I learn to listen to the reviews??????  The reviews were all horrible except the most recent. So, I decided to give them a try.  Stupid on my part!!!!!!!!
+This was the only hotel at this exit where our family was staying (at the RV Park). We wanted to be close to our family. In town for a funeral. 
+First night - Room 217. Dirty. Vacuum had NOT been run. Towels were thread bare and stained. Bedspread was from 1970. Miss-matched furniture. Broken full size refrigerator. We took a shower the next morning.  ICE COLD WATER. But hot water in the sink. ???????  Toilet would not flush. My husband went to the office, complained and requested to switch rooms. He went to check out the new room and make sure the hot water worked. It was under construction!!!!!!! 
+For Pete’s sake. 
+Back to the office. 
+Third room - room 121. These are the pictures from this room. Again. Dirty. Vacuum had not been run. Newer bedspread and better towels. Miss-matched furniture. Old carpet. King size bed with two small flat standard pillows. But at least the AC worked and there was Hot water!!!!!  But - bathtub was slicker than snot. I fell in the shower. Day two they actually ran the vacuum!!!!!!  However they left creamer instead of soap on the bathtub!?!?
+We extended our visit by...I really wish I could give this a minus rating!!!!!  When will I learn to listen to the reviews??????  The reviews were all horrible except the most recent. So, I decided to give them a try.  Stupid on my part!!!!!!!!This was the only hotel at this exit where our family was staying (at the RV Park). We wanted to be close to our family. In town for a funeral. First night - Room 217. Dirty. Vacuum had NOT been run. Towels were thread bare and stained. Bedspread was from 1970. Miss-matched furniture. Broken full size refrigerator. We took a shower the next morning.  ICE COLD WATER. But hot water in the sink. ???????  Toilet would not flush. My husband went to the office, complained and requested to switch rooms. He went to check out the new room and make sure the hot water worked. It was under construction!!!!!!! For Pete’s sake. Back to the office. Third room - room 121. These are the pictures from this room. Again. Dirty. Vacuum had not been run. Newer bedspread and better towels. Miss-matched furniture. Old carpet. King size bed with two small flat standard pillows. But at least the AC worked and there was Hot water!!!!!  But - bathtub was slicker than snot. I fell in the shower. Day two they actually ran the vacuum!!!!!!  However they left creamer instead of soap on the bathtub!?!?We extended our visit by one day. I stopped in the office that morning to advise. I was told fine. They had my credit card on file. We get back to the room at 11pm at night. Exhausted!!!!  There was no power. My husband went to the office and the man at the front desk argued with him that we didn’t pay. My husband got it straightened out. Came back to the room, power was restored. The phone rings and it’s some woman complaining that we didn’t pay for an extra night. Un-freaking-believable!!!!!!!!! If we weren’t so exhausted, we would have just checked out. But we stayed.  Funny thing here - they charge my credit card for the fourth night at 7pm!!!!!!!!  3 hours before we came back to NO power. The ending ——— Our last night there, after a very exhausting, draining and emotional trip, and very frustrating event with the front office, the smoke alarm went off at 4am!!!!!!!!  For ten minutes. Then stopped.  Was this on purpose???????? Just take my word for it - Don’t stay here!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I really wish I could give this a minus rating!!!!!  When will I learn to listen to the reviews??????  The reviews were all horrible except the most recent. So, I decided to give them a try.  Stupid on my part!!!!!!!!
+This was the only hotel at this exit where our family was staying (at the RV Park). We wanted to be close to our family. In town for a funeral. 
+First night - Room 217. Dirty. Vacuum had NOT been run. Towels were thread bare and stained. Bedspread was from 1970. Miss-matched furniture. Broken full size refrigerator. We took a shower the next morning.  ICE COLD WATER. But hot water in the sink. ???????  Toilet would not flush. My husband went to the office, complained and requested to switch rooms. He went to check out the new room and make sure the hot water worked. It was under construction!!!!!!! 
+For Pete’s sake. 
+Back to the office. 
+Third room - room 121. These are the pictures from this room. Again. Dirty. Vacuum had not been run. Newer bedspread and better towels. Miss-matched furniture. Old carpet. King size bed with two small flat standard pillows. But at least the AC worked and there was Hot water!!!!!  But - bathtub was slicker than snot. I fell in the shower. Day two they actually ran the vacuum!!!!!!  However they left creamer instead of soap on the bathtub!?!?
+We extended our visit by...I really wish I could give this a minus rating!!!!!  When will I learn to listen to the reviews??????  The reviews were all horrible except the most recent. So, I decided to give them a try.  Stupid on my part!!!!!!!!This was the only hotel at this exit where our family was staying (at the RV Park). We wanted to be close to our family. In town for a funeral. First night - Room 217. Dirty. Vacuum had NOT been run. Towels were thread bare and stained. Bedspread was from 1970. Miss-matched furniture. Broken full size refrigerator. We took a shower the next morning.  ICE COLD WATER. But hot water in the sink. ???????  Toilet would not flush. My husband went to the office, complained and requested to switch rooms. He went to check out the new room and make sure the hot water worked. It was under construction!!!!!!! For Pete’s sake. Back to the office. Third room - room 121. These are the pictures from this room. Again. Dirty. Vacuum had not been run. Newer bedspread and better towels. Miss-matched furniture. Old carpet. King size bed with two small flat standard pillows. But at least the AC worked and there was Hot water!!!!!  But - bathtub was slicker than snot. I fell in the shower. Day two they actually ran the vacuum!!!!!!  However they left creamer instead of soap on the bathtub!?!?We extended our visit by one day. I stopped in the office that morning to advise. I was told fine. They had my credit card on file. We get back to the room at 11pm at night. Exhausted!!!!  There was no power. My husband went to the office and the man at the front desk argued with him that we didn’t pay. My husband got it straightened out. Came back to the room, power was restored. The phone rings and it’s some woman complaining that we didn’t pay for an extra night. Un-freaking-believable!!!!!!!!! If we weren’t so exhausted, we would have just checked out. But we stayed.  Funny thing here - they charge my credit card for the fourth night at 7pm!!!!!!!!  3 hours before we came back to NO power. The ending ——— Our last night there, after a very exhausting, draining and emotional trip, and very frustrating event with the front office, the smoke alarm went off at 4am!!!!!!!!  For ten minutes. Then stopped.  Was this on purpose???????? Just take my word for it - Don’t stay here!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r593397584-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>593397584</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Very Impressed with Improvements!</t>
+  </si>
+  <si>
+    <t>I was hesitant about staying here because of the reviews id read, but decided to take a chance and was pleasantly surprised. I can tell there have been several updates made to the rooms and the cleanliness was nothing like I read it to be. I was very happy with my stay, The staff was very friendly and helpful. I will defiantly be staying here again!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r550219745-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
   </si>
   <si>
-    <t>56897</t>
-  </si>
-  <si>
-    <t>106185</t>
-  </si>
-  <si>
     <t>550219745</t>
   </si>
   <si>
@@ -180,9 +231,6 @@
     <t>1. TV - most channels poor reception 2.Floor lamp by desk did not work 3.Refrigerator rusty 4.Alarm clock dirty 5.Was originally going to stay a week and they wanted to charge extra $30 cleaning fee 6.No pillow cases on 2 pillows 7.Water leaking from room above in bathroom. Water on toilet seat and floor 8.Bathtub dirty and stained 9.Bathroom floor dirty 10.Carpet not clean and used Q-tips and other debris on floor 11.Noise from adjacent rooms 12.No bath mat/slip prevention in bath (I slipped and almost fell so did not shower)13.Enough to make one in room coffee even though 2 guests14.Entrance door deadbolt hard to use due to misalignment15. "Breakfast" bar couple bagels, bread, ceral, Juice, coffee (went next door to McDonalds)See PicturesMore</t>
   </si>
   <si>
-    <t>Sandykc241</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r514347887-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
   </si>
   <si>
@@ -201,15 +249,9 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>I would live to give a positive in this review #1 conveniently located on service road. #2 the bed linen appeared to be clean. #3 Cheap My advice is keep driving. I found a wallet next to my car and went to the office to get the guys information so I could return it to him on the spot, I would not have been comfortable leaving it at the front desk. (He gave me the information by the way, red flag) Bathroom floor was full of hair as was the bathtub drain (not mine) we put a towel down to shower. Gross and it is hard to believe it is by Wyndham.More</t>
   </si>
   <si>
-    <t>Ric B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r500838804-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
   </si>
   <si>
@@ -226,9 +268,6 @@
   </si>
   <si>
     <t>July 2017</t>
-  </si>
-  <si>
-    <t>catatopia</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r440037279-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
@@ -258,9 +297,6 @@
 Later, I went to the office to get the wi-fi pass word. I rang for him &amp; once again he looked very put out &amp; was rude. The commode did not flush properly. My husband went to move the hair dryer cord to plug in the coffee pot &amp; the whole unit came off the wall. &amp; the tv had very...We booked a room at Knights Inn for two days in advance. My confirmation said it had a king size bed, microwave &amp; refrigerator It also advertises that it is pet friendly. When we arrived, the man who checked us in was rude. He kept asking me the same question over &amp; over, but did not seem to like the answer. when my husband tried to explain, he held his hand up to silence him. He spoke in heavily accented English, where sometimes he could not be understood.When we finally got to the room, we noticed the air-conditioning unit did not sit flush with the wall. The electrical outlet would not keep anything plugged in. The plug would come right back out. There were "No Pets" signs everywhere, starting with the the office. There was no microwave in the room, as advertised. It also offered a free continental breakfast. when we went to breakfast the next morning, there was nothing there, even though it was not supposed to end yet. They had even turned the coffee pot off.  Later, I went to the office to get the wi-fi pass word. I rang for him &amp; once again he looked very put out &amp; was rude. The commode did not flush properly. My husband went to move the hair dryer cord to plug in the coffee pot &amp; the whole unit came off the wall. &amp; the tv had very few channels. The ones they did have had wavy lines going through them.  Also, he rented the room above us to someone who had kids. They kept running and making noise for most of the night. I would not recommend this place to anyone. There was a dead bug inMore</t>
   </si>
   <si>
-    <t>William M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r395912721-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
   </si>
   <si>
@@ -279,12 +315,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>corkerine</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r340057298-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
   </si>
   <si>
@@ -306,9 +336,6 @@
     <t>The only reason this is getting a 1 is because there is not a negative number!  I called on a Monday to book a room for the following Saturday and was told that they did not have any rooms available.  I asked if I could be put on a waiting list and was told "no" and he hung up.  My brother-in-law called the next day and was told that the hotel was open and no reservations were needed - just come whenever he needed a room.  I had heard rumors that the manager disliked women but didn't believe it until I experienced it first hand!  Fast forward to Saturday...we were celebrating at the sports bar in the hotel and weren't going to drive after drinking, hence the reason we needed to stay there.  My husband and I went in to get a room and I handed him my credit card.  He then asked for my license...standard protocol.  I had recently gotten married and gave him my credit card that hadn't been changed over yet...so he questioned it.  I explained that I had recently gotten married and that was my maiden name, but I had another card that had been changed over to my married name and matched my license...so I gave him that.  He then proceeds to ask "Who is Diane"?  I explained that was my middle name &amp; had no relevance, the first card was in my maiden name...The only reason this is getting a 1 is because there is not a negative number!  I called on a Monday to book a room for the following Saturday and was told that they did not have any rooms available.  I asked if I could be put on a waiting list and was told "no" and he hung up.  My brother-in-law called the next day and was told that the hotel was open and no reservations were needed - just come whenever he needed a room.  I had heard rumors that the manager disliked women but didn't believe it until I experienced it first hand!  Fast forward to Saturday...we were celebrating at the sports bar in the hotel and weren't going to drive after drinking, hence the reason we needed to stay there.  My husband and I went in to get a room and I handed him my credit card.  He then asked for my license...standard protocol.  I had recently gotten married and gave him my credit card that hadn't been changed over yet...so he questioned it.  I explained that I had recently gotten married and that was my maiden name, but I had another card that had been changed over to my married name and matched my license...so I gave him that.  He then proceeds to ask "Who is Diane"?  I explained that was my middle name &amp; had no relevance, the first card was in my maiden name and the card I just gave him had my married name on it. This went on 3 rounds of explanation.  My husband then interjected and tried to tell him that the first card was my maiden name and he VERY RUDELY pointed his finger at him and said  "I'm not talking to you!".  We remained calm and I tried once again to explain and SHOW him I had proper identification and that my cards were legit.  He again VERY RUDELY said "GET OUT! I cannot rent to you...get out of my lobby!"  Shocked, I asked "Are you serious?"...and he was! We did end up staying there because we weren't going to drink &amp; drive (my brother-in-law had to get the room).  As if the manager's unexcusable behavior wasn't bad enough, the room was run down &amp; disgusting. The other reviews are spot on!  There were dead roaches in the bathroom and the shower ceiling had a huge patch job that was about to fall in!  There was a musty smell and the wifi didn't work.  Will never stay here again and will warn everyone that I can not to stay here either! This place should be shut down!!More</t>
   </si>
   <si>
-    <t>Robert L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r271838404-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
   </si>
   <si>
@@ -330,9 +357,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>BillyMitchell897</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r216708688-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
   </si>
   <si>
@@ -352,9 +376,6 @@
   </si>
   <si>
     <t>I paid $200 for one week. On the first night I was asleep when I felt something crawling on my skin. When I turned on the light roaches were everywhere, on my bed, my suitcase, walls, floor… The light made them scatter into all these cracks in the room. I went to the front desk and demanded my money back. In broken English the desk clerk said, "no refunds." So I demanded another room. At 7:00 AM two hotel employees were knocking on my door demanding more money because the room they moved me to cost more because it was downstairs. I called Discover Card and told them not to let Knights Inn charge on my credit card. Discover said they can't do that because they had already approved my card. I called Knights Inn corporate complaint line. They told me this hotel is independently owned and they can do nothing. I lost the $200.More</t>
-  </si>
-  <si>
-    <t>just_crystal</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r202407700-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
@@ -377,9 +398,6 @@
 Upon our initial arrival to the hotel, we were having issues with the magnetic strips on our keycard. We had to go back on 3 separate occasions to replace our card. On that Friday Evening/Saturday Morning at 1am, we were awoken by a septic waterfall in our bathroom. I have video available if you don't believe me,you wouldn't believe it if you saw it. We had to call the front desk--yet again. And they were "bothered" that we were contacting them once more. They came within 10 mins to access the damage and we were forced to move our room in our pajamas. We were notified that the new room did not have a magnetic lock and that we would need to return the key to the front desk in the morning--being that it was the only copy that they owned. At 6:15am as instructed, we went to the front desk to drop off the key because we had a conference to attend at 7. At this time, we learned that our door actually DOESN'T LOCK. We slept overnight in a room, with all our belongings and the DOOR DOESN'T EVEN LOCK. Mind you, this hotel has no form of security as anyone could walk up to any hotel room. Without any...I have been back and forth with this hotel ever since my stay. We recently stayed 4/3/14-4/8/14 for a Business Conference as well as the NCAA Final Four.Upon our initial arrival to the hotel, we were having issues with the magnetic strips on our keycard. We had to go back on 3 separate occasions to replace our card. On that Friday Evening/Saturday Morning at 1am, we were awoken by a septic waterfall in our bathroom. I have video available if you don't believe me,you wouldn't believe it if you saw it. We had to call the front desk--yet again. And they were "bothered" that we were contacting them once more. They came within 10 mins to access the damage and we were forced to move our room in our pajamas. We were notified that the new room did not have a magnetic lock and that we would need to return the key to the front desk in the morning--being that it was the only copy that they owned. At 6:15am as instructed, we went to the front desk to drop off the key because we had a conference to attend at 7. At this time, we learned that our door actually DOESN'T LOCK. We slept overnight in a room, with all our belongings and the DOOR DOESN'T EVEN LOCK. Mind you, this hotel has no form of security as anyone could walk up to any hotel room. Without any empathy OR any apologies whatsoever, the front desk told us we would have to change our room. Since we had a conference to attend at 7am, we requested if front desk/bell hop could have our belongings moved, HOWEVER they stated that there was no such service AND that there were no rooms available. Nonetheless, we had to wait with our belongings AND wait for a room--THUS being late to the conference we came to Texas for(arrived to our conference at the Fort Worth Convention Center past 9:20am) Throughout the whole process, there were no apologies. The front desk was completely inconsiderate and unhelpful. The whole time they stood by the fact that it WASN'T their fault that the bathroom had a waterfall flood, nor that we were given a room that didn't even lock nor that we had to be late for our conference because they failed to accommodate ANY of our needs. They even went to state that it was the guest above us that was at fault for the waterfall!!!After the fact, we called our travel agent and they were able to negotiate to get us 2 nights refunded for all our inconvenience. NOW, the nightmare continues!!!! Being that Knights Inn charged my card, they are the ones needed to refund my card.We have been back and forth with the hotel on numerous occasions, unable to get in contact with their manager, Vicki Patel. Apparently this manager never works. And none of the people that work there speak English. At this point, my travel agent and I have reached out to the "presidential corporate" contact(wyndham/knights inn) and they have reported that they can take over the case after April 28th. SAVE YOURSELF THE TROUBLE. I WOULD HAVE PREFERRED TO SLEEP in MY RENTAL CAR. If you really want to see the waterfall, you can email me. It's quite funny.More</t>
   </si>
   <si>
-    <t>ehopkins2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r152009678-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
   </si>
   <si>
@@ -393,6 +411,115 @@
   </si>
   <si>
     <t>I stayes there for about a year and it was a nightmare we had to switch air conditioner units over ten times the owners were cheapskates and they were really rude the maintenance man was never there the pool was shut down most of the time there's more also but its to much to list but a wprd of warning do NOT stay there</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r115302988-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>115302988</t>
+  </si>
+  <si>
+    <t>07/12/2011</t>
+  </si>
+  <si>
+    <t>Nightmare of a Stay</t>
+  </si>
+  <si>
+    <t>Oh goodness, not sure where to begin.   Lets see, for starters the coffee was not empty and had mold in it, the deadbolt lock and the chain lock at top of door was broken, the door had looked liked it had been kicked in and I saw 2 spiders the size of a half dollar and when I approached the manager to change rooms he could care less.  The pool was filthy and the sheets were dirty and to top ot all off I had to leave for the night cause I was afraid of getting bit and the manager got angry when I asked to change rooms and threatened to call cops..lol..  Worst Hotel experience I have ever had and I lost 60.00 and have filed a case with the Wyndham Managment case worker.  Oh, and the T.V had maybe 6-7 channels that worked and 2 were in espanol.  Knights in does not belong in the Wyndham family.  Best advice I can give you is DONT STAY THERE, drive few more miles up the freeway and there is a wide variety of hotels, nice hotels to chose from that actually care about its customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Oh goodness, not sure where to begin.   Lets see, for starters the coffee was not empty and had mold in it, the deadbolt lock and the chain lock at top of door was broken, the door had looked liked it had been kicked in and I saw 2 spiders the size of a half dollar and when I approached the manager to change rooms he could care less.  The pool was filthy and the sheets were dirty and to top ot all off I had to leave for the night cause I was afraid of getting bit and the manager got angry when I asked to change rooms and threatened to call cops..lol..  Worst Hotel experience I have ever had and I lost 60.00 and have filed a case with the Wyndham Managment case worker.  Oh, and the T.V had maybe 6-7 channels that worked and 2 were in espanol.  Knights in does not belong in the Wyndham family.  Best advice I can give you is DONT STAY THERE, drive few more miles up the freeway and there is a wide variety of hotels, nice hotels to chose from that actually care about its customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r95822864-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>95822864</t>
+  </si>
+  <si>
+    <t>02/07/2011</t>
+  </si>
+  <si>
+    <t>Helpful in a tight spot</t>
+  </si>
+  <si>
+    <t>During the terrible ice/snow storm that hit Texas recently I was traveling via I-20 and refused to drive any farther on the awful roads. Many hotels had either been booked completely, were on exits that I could not access due to accidents or parked traffic blocking the lane or had skyrocketed their prices to make a profit on the misfortune we as travelers were facing on the roads. This hotel not only was in a convenient location off of the interstate but their price remained the same as any other time and the room was quite comfortable. The outside may give you a reason to think twice but the room was nice and warmed up quickly considering the weather outside.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>During the terrible ice/snow storm that hit Texas recently I was traveling via I-20 and refused to drive any farther on the awful roads. Many hotels had either been booked completely, were on exits that I could not access due to accidents or parked traffic blocking the lane or had skyrocketed their prices to make a profit on the misfortune we as travelers were facing on the roads. This hotel not only was in a convenient location off of the interstate but their price remained the same as any other time and the room was quite comfortable. The outside may give you a reason to think twice but the room was nice and warmed up quickly considering the weather outside.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56897-d106185-r80986591-Knights_Inn_Willow_Park-Willow_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>80986591</t>
+  </si>
+  <si>
+    <t>09/25/2010</t>
+  </si>
+  <si>
+    <t>Worst Nightmare</t>
+  </si>
+  <si>
+    <t>I'll being with the positives:
+- The shower had great water pressure. And very easy to use.
+- The room itself was very spacious. 
+- The window unit did it's job.
+- Bed was comfortable.
+- I got lucky and found a quarter under the alarm clock.
+The negatives:
+- The television had horrible reception. The screen was very fuzzy.
+- The bed sheets had stains. And, the bed sheet that covers the mattress, kept coming off.
+- There was NO water pressure in the sink.
+- The table and chairs looked like they were just thrown in there.
+- Also the table had food crumbs all over it.
+- The door was very hard to open. It kept getting stuck to the floor.
+- There was cleaning supplies left in the room, when we went in.
+- There was an odd number of 3 pillows on the bed.
+- Upon arriving to check-in, the attendant wasn't present at the front desk.
+- The towels had stains on them.
+- There were dirt rings around the sink knobs.
+- Light cover over the sink was open and hanging off.
+- Smoke detector was hanging off by a wire.
+- Toilet sounded like it almost fell apart when it was used.
+- Pieces of toilet paper on the floor in the bathroom.
+- Holes and cracks all over the walls. &amp; room was poorly painted.
+- No main lights, just 3...I'll being with the positives:- The shower had great water pressure. And very easy to use.- The room itself was very spacious. - The window unit did it's job.- Bed was comfortable.- I got lucky and found a quarter under the alarm clock.The negatives:- The television had horrible reception. The screen was very fuzzy.- The bed sheets had stains. And, the bed sheet that covers the mattress, kept coming off.- There was NO water pressure in the sink.- The table and chairs looked like they were just thrown in there.- Also the table had food crumbs all over it.- The door was very hard to open. It kept getting stuck to the floor.- There was cleaning supplies left in the room, when we went in.- There was an odd number of 3 pillows on the bed.- Upon arriving to check-in, the attendant wasn't present at the front desk.- The towels had stains on them.- There were dirt rings around the sink knobs.- Light cover over the sink was open and hanging off.- Smoke detector was hanging off by a wire.- Toilet sounded like it almost fell apart when it was used.- Pieces of toilet paper on the floor in the bathroom.- Holes and cracks all over the walls. &amp; room was poorly painted.- No main lights, just 3 desk lamps.- And lamp shades were crooked.- Said they had a pool. But, there was no water inside it and it had green mold all over the inside.This was a horrible experience. I wish I could have afforded something better. I literally slept with one eye open that night, in fear of someone robbing us or our vehicle.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>I'll being with the positives:
+- The shower had great water pressure. And very easy to use.
+- The room itself was very spacious. 
+- The window unit did it's job.
+- Bed was comfortable.
+- I got lucky and found a quarter under the alarm clock.
+The negatives:
+- The television had horrible reception. The screen was very fuzzy.
+- The bed sheets had stains. And, the bed sheet that covers the mattress, kept coming off.
+- There was NO water pressure in the sink.
+- The table and chairs looked like they were just thrown in there.
+- Also the table had food crumbs all over it.
+- The door was very hard to open. It kept getting stuck to the floor.
+- There was cleaning supplies left in the room, when we went in.
+- There was an odd number of 3 pillows on the bed.
+- Upon arriving to check-in, the attendant wasn't present at the front desk.
+- The towels had stains on them.
+- There were dirt rings around the sink knobs.
+- Light cover over the sink was open and hanging off.
+- Smoke detector was hanging off by a wire.
+- Toilet sounded like it almost fell apart when it was used.
+- Pieces of toilet paper on the floor in the bathroom.
+- Holes and cracks all over the walls. &amp; room was poorly painted.
+- No main lights, just 3...I'll being with the positives:- The shower had great water pressure. And very easy to use.- The room itself was very spacious. - The window unit did it's job.- Bed was comfortable.- I got lucky and found a quarter under the alarm clock.The negatives:- The television had horrible reception. The screen was very fuzzy.- The bed sheets had stains. And, the bed sheet that covers the mattress, kept coming off.- There was NO water pressure in the sink.- The table and chairs looked like they were just thrown in there.- Also the table had food crumbs all over it.- The door was very hard to open. It kept getting stuck to the floor.- There was cleaning supplies left in the room, when we went in.- There was an odd number of 3 pillows on the bed.- Upon arriving to check-in, the attendant wasn't present at the front desk.- The towels had stains on them.- There were dirt rings around the sink knobs.- Light cover over the sink was open and hanging off.- Smoke detector was hanging off by a wire.- Toilet sounded like it almost fell apart when it was used.- Pieces of toilet paper on the floor in the bathroom.- Holes and cracks all over the walls. &amp; room was poorly painted.- No main lights, just 3 desk lamps.- And lamp shades were crooked.- Said they had a pool. But, there was no water inside it and it had green mold all over the inside.This was a horrible experience. I wish I could have afforded something better. I literally slept with one eye open that night, in fear of someone robbing us or our vehicle.More</t>
   </si>
 </sst>
 </file>
@@ -895,182 +1022,170 @@
       <c r="A2" t="n">
         <v>31069</v>
       </c>
-      <c r="B2" t="n">
-        <v>11210</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>47</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>49</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s">
-        <v>52</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>31069</v>
       </c>
-      <c r="B3" t="n">
-        <v>162829</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>31069</v>
       </c>
-      <c r="B4" t="n">
-        <v>162830</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>3</v>
@@ -1081,186 +1196,174 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31069</v>
       </c>
-      <c r="B5" t="n">
-        <v>162831</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31069</v>
       </c>
-      <c r="B6" t="n">
-        <v>13586</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>84</v>
-      </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31069</v>
       </c>
-      <c r="B7" t="n">
-        <v>162832</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
         <v>45</v>
       </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
@@ -1272,121 +1375,107 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31069</v>
       </c>
-      <c r="B8" t="n">
-        <v>1769</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
         <v>45</v>
       </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31069</v>
       </c>
-      <c r="B9" t="n">
-        <v>162833</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
         <v>45</v>
       </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1404,60 +1493,56 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31069</v>
       </c>
-      <c r="B10" t="n">
-        <v>162834</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
         <v>45</v>
       </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>106</v>
+      </c>
       <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
       <c r="S10" t="n">
         <v>1</v>
       </c>
@@ -1471,63 +1556,57 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31069</v>
       </c>
-      <c r="B11" t="n">
-        <v>162835</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
         <v>45</v>
       </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>106</v>
+      </c>
       <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>1</v>
@@ -1538,7 +1617,330 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31069</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31069</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
         <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31069</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31069</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>31069</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
